--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.ponte\Documents\ProjetoGestaoHoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.ponte\Documents\ProjetoGestaoHoras\ProjetoGestaoHoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15729FFB-2469-4CC1-9874-BB250D6829BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22C42E-52CE-43CB-9D57-826FAAEB93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A334E67-38E4-4164-A20D-1236CFC383C8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A334E67-38E4-4164-A20D-1236CFC383C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Seguimiento acciones" sheetId="1" r:id="rId1"/>
-    <sheet name="horario partilhar" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Seguimiento acciones'!$B$3:$M$3</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Piloto</t>
   </si>
@@ -90,70 +89,17 @@
     </r>
   </si>
   <si>
-    <t>Dias do mes</t>
-  </si>
-  <si>
-    <t>2ª feira</t>
-  </si>
-  <si>
-    <t>3ª feira</t>
-  </si>
-  <si>
-    <t>4ª feira</t>
-  </si>
-  <si>
-    <t>5ª feira</t>
-  </si>
-  <si>
-    <t>6ª feira</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>André</t>
-  </si>
-  <si>
-    <t>Ronnie</t>
-  </si>
-  <si>
-    <t>Partilha</t>
-  </si>
-  <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>Diogo Fer</t>
-  </si>
-  <si>
-    <t>Diogo</t>
-  </si>
-  <si>
-    <t>Renato</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
     <t>Cod.</t>
-  </si>
-  <si>
-    <t>http://10.100.251.5:3000/login
-admin@admin.com
-123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,14 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,49 +189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,9 +304,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -412,9 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,42 +326,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -472,13 +338,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -486,9 +361,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,83 +439,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12065</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723265</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>29210</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43469B5D-2CC1-F45F-43D3-B29D1FFB55F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="974090" y="3402330"/>
-          <a:ext cx="711200" cy="246380"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF99">
-            <a:alpha val="10980"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-PT" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HRA"/>
@@ -1128,207 +925,206 @@
   </sheetPr>
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="M3" sqref="M3"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12" style="6" customWidth="1"/>
-    <col min="10" max="10" width="92.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="6" customWidth="1"/>
-    <col min="13" max="15" width="21.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="11.5703125" style="5"/>
+    <col min="2" max="2" width="7" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="92.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="5" customWidth="1"/>
+    <col min="13" max="15" width="21.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="11.54296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="11.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:13" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="14">
         <f ca="1">+TODAY()</f>
-        <v>45097</v>
-      </c>
-      <c r="L2" s="4">
+        <v>45181</v>
+      </c>
+      <c r="L2" s="3">
         <f>MAX(B4:B151)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="24" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="20" t="s">
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7"/>
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:M3" xr:uid="{D7A9EDE3-9918-48A0-80CD-BF1D6E8E9043}">
@@ -1364,228 +1160,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="http://192.168.113.5:3000/login" xr:uid="{7F6C7B96-1A05-4036-BB9D-372257A33278}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081FA2C4-B743-4C09-A5BE-134E7FBDA200}">
-  <dimension ref="B4:C34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.ponte\Documents\ProjetoGestaoHoras\ProjetoGestaoHoras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.ponte\Documents\ProjetoGestaoHoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED22C42E-52CE-43CB-9D57-826FAAEB93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C76670-CFD7-4E4A-A4A2-C3194D18EEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A334E67-38E4-4164-A20D-1236CFC383C8}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{79A36086-27F8-4C31-9B3E-CCFA4C77BDC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Seguimiento acciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Projetos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Seguimiento acciones'!$B$3:$M$3</definedName>
-    <definedName name="Actividades">[1]Referencias!$B$3:$B$24</definedName>
-    <definedName name="Paquetes_de_Trabajo">[1]Referencias!$A$3:$A$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Projetos!$B$3:$M$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,36 +40,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Piloto</t>
-  </si>
-  <si>
-    <t>Notas</t>
-  </si>
-  <si>
-    <t>Realizado</t>
-  </si>
-  <si>
-    <t>Resultado</t>
-  </si>
-  <si>
-    <t>Ações</t>
-  </si>
-  <si>
-    <t>Data inicio</t>
-  </si>
-  <si>
-    <t>Data objetivo</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Projeto</t>
-  </si>
-  <si>
-    <t>Alerta dias</t>
-  </si>
   <si>
     <r>
       <t xml:space="preserve">Seguimento plano de ações. </t>
@@ -89,17 +56,47 @@
     </r>
   </si>
   <si>
+    <t>Cod.</t>
+  </si>
+  <si>
     <t>Cliente</t>
   </si>
   <si>
-    <t>Cod.</t>
+    <t>Projeto</t>
+  </si>
+  <si>
+    <t>Ações</t>
+  </si>
+  <si>
+    <t>Data inicio</t>
+  </si>
+  <si>
+    <t>Data objetivo</t>
+  </si>
+  <si>
+    <t>Alerta dias</t>
+  </si>
+  <si>
+    <t>Piloto</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Links</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +126,14 @@
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -143,35 +148,6 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -189,13 +165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,6 +182,43 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -264,54 +277,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,48 +302,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -369,11 +352,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFFF99"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,23 +367,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461536</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>32630</xdr:rowOff>
+      <xdr:rowOff>40016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>362585</xdr:colOff>
+      <xdr:colOff>73572</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>587907</xdr:rowOff>
+      <xdr:rowOff>605257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1C6446-4D5F-4D38-BDE5-939ACA8F2B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19FC835-F908-4B8F-9830-454938E88BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -426,8 +404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1112520" y="177410"/>
-          <a:ext cx="1714500" cy="555277"/>
+          <a:off x="713784" y="239713"/>
+          <a:ext cx="1404050" cy="563336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -437,190 +415,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HRA"/>
-      <sheetName val="Comprometido"/>
-      <sheetName val="Referencias"/>
-      <sheetName val="TOTAL WP - PSA"/>
-      <sheetName val="Indicadores - PSA 100%"/>
-      <sheetName val="TOTAL WP - CTAG"/>
-      <sheetName val="Indicadores - CTAG 100%"/>
-      <sheetName val="TOTAL WP"/>
-      <sheetName val="Radar Acumulado TOTAL"/>
-      <sheetName val="Indicadores - TOTAL 100%"/>
-      <sheetName val="Indicadores - PSA Aut."/>
-      <sheetName val="Indicadores - CTAG Aut."/>
-      <sheetName val="Indicadores - TOTAL Aut."/>
-      <sheetName val="Radares PSA"/>
-      <sheetName val="Radares CTAG"/>
-      <sheetName val="Radares TOTAL"/>
-      <sheetName val="Resumen Consorcio"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>-</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>------</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>WP.01 - GESTIÓN DE PROYECTO Y ORGANIZACIÓN TÉCNICA</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Act.02.01 - Modelización 3D: simulación de flujo y línea</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>WP.02 - FÁBRICA VIRTUAL</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Act.02.02 - Integración producto proceso</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>WP.03 - FÁBRICA CONECTADA</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Act.03.01 - Big Data</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>WP.04 - FÁBRICA ÁGIL Y FLEXIBLE</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Act.03.02 - Wi-Fi, 3G/4G</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>WP.05 - FÁBRICA ECOAMIGABLE</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Act.03.03 - RFID</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>WP.06 - TECNOLOGÍAS LIMPIAS</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Act.03.04 - Realidad aumentada</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>WP.07 - VEHÍCULO AUTÓNOMO Y CONECTADO</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Act.04.01 - Sistemas y procesos modulares</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>WP.08 - CAPACIDAD DE ATRACCIÓN</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Act.04.02 - Automatización 4.0 de los procesos</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>WP.09 - OBSERVATORIO: VIGILANCIA Y PROSPECCIÓN TECNOLÓGICA</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Act.04.03 - Robots colaborativos (cobótica)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>WP.10 - PLAN DE INTEGRACIÓN Y VALIDACIÓN (PIV)</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Act.04.04 - Control y corrección de calidad en flujo</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Act.05.01 - Impacto neutro en energía y residuos</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>Act.05.02 - Salvaguarda de personas</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>Act.06.01 - Vehículo híbrido y/o eléctrico</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>Act.06.02 - Reducción de masa</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>Act.07.01 - Nueva Generación de Sistemas ADAS</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>Act.07.02 - Conectividad</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>Act.07.03 - Vehículo Autónomo</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>Act.07.04 - Self-Learning Intelligent Car</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>Act.08.01 - Sistemas y componentes transversales de vehículos</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>Act.08.02 - Sistemas y componentes de vehículos específicos</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,237 +713,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A9EDE3-9918-48A0-80CD-BF1D6E8E9043}">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED931BE-EED1-48F0-B50E-2A793B8D581E}">
+  <dimension ref="B1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection activeCell="M3" sqref="M3"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="92.7265625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" style="5" customWidth="1"/>
-    <col min="13" max="15" width="21.7265625" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="11.54296875" style="4"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16" style="13" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="46.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="11.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:14" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4">
+        <f ca="1">+TODAY()</f>
+        <v>45299</v>
+      </c>
+      <c r="L2" s="5">
+        <f>MAX(B4:B121)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="2:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="14">
-        <f ca="1">+TODAY()</f>
-        <v>45181</v>
-      </c>
-      <c r="L2" s="3">
-        <f>MAX(B4:B151)</f>
-        <v>0</v>
-      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="11"/>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="6"/>
+    <row r="5" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:M3" xr:uid="{D7A9EDE3-9918-48A0-80CD-BF1D6E8E9043}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M4">
-      <sortCondition ref="H3"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B3:M5" xr:uid="{FED931BE-EED1-48F0-B50E-2A793B8D581E}"/>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H3:H1048576 H1">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H29">
-    <cfRule type="colorScale" priority="120">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
